--- a/data-raw/SusitnaEG age.xlsx
+++ b/data-raw/SusitnaEG age.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\SusitnaEG\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\RTS\Reimer\SusitnaEG\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8C9BB7-780F-46CF-8398-C6BE65E1D59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DC5649-D5B5-4367-B883-76D3BF0C5419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eastside_Talkeetna sport" sheetId="2" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="115">
   <si>
     <t>Chinook Salmon age classs compostion</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>10/3/2023 teams message from Nick</t>
+  </si>
+  <si>
+    <t>1/10/2024 teams message from Nick</t>
   </si>
 </sst>
 </file>
@@ -3413,10 +3416,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4990,16 +4993,16 @@
       <c r="A55">
         <v>2023</v>
       </c>
-      <c r="B55" s="31">
+      <c r="B55" s="30">
         <v>0.38300000000000001</v>
       </c>
-      <c r="C55" s="31">
+      <c r="C55" s="30">
         <v>0.377</v>
       </c>
-      <c r="D55" s="31">
+      <c r="D55" s="30">
         <v>0.24099999999999999</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="30">
         <v>0</v>
       </c>
       <c r="F55" s="17">
@@ -5014,6 +5017,36 @@
       </c>
       <c r="J55" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2024</v>
+      </c>
+      <c r="B56" s="31">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="C56" s="31">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D56" s="31">
+        <v>0.186</v>
+      </c>
+      <c r="E56" s="31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F56" s="17">
+        <v>0</v>
+      </c>
+      <c r="G56" s="24">
+        <f>SUM(B56:F56)</f>
+        <v>1</v>
+      </c>
+      <c r="H56" s="27">
+        <v>231</v>
+      </c>
+      <c r="J56" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
